--- a/biology/Zoologie/Australoheros/Australoheros.xlsx
+++ b/biology/Zoologie/Australoheros/Australoheros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Australoheros est un genre de poissons d'eau douce et saumâtre de la famille des Cichlidae (ordre des Cichliformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Australoheros se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Australoheros se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces poissons sont territoriaux en période de reproduction, particulièrement en espace clos tel que les aquariums. Des variantes géographiques existent et influent sur les caractéristiques méristiques et la coloration.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 avril 2024) :
 Australoheros acaroides (Hensel, 1870)
 Australoheros angiru Říčan, Piálek, Almirón &amp; Casciotta, 2011
 Australoheros autochthon (Günther, 1862)
@@ -633,9 +651,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Australoheros Říčan (d) &amp; Kullander (d), 2006[2],[3]. L'espèce type de ce genre est Australoheros facetus (Jenyns, 1842)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Australoheros Říčan (d) &amp; Kullander (d), 2006,. L'espèce type de ce genre est Australoheros facetus (Jenyns, 1842).
 </t>
         </is>
       </c>
@@ -664,9 +684,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Australoheros, se compose du latin australis, « du sud », ce qui fait référence à l'aire de répartition de ces espèces dans la moitié sud de l'Amérique du Sud, et du genre Heros[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Australoheros, se compose du latin australis, « du sud », ce qui fait référence à l'aire de répartition de ces espèces dans la moitié sud de l'Amérique du Sud, et du genre Heros.
 </t>
         </is>
       </c>
@@ -695,7 +717,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) O. Říčan et S. O. Kullander, « Character- and tree-based delimitation of species in the 'Cichlasoma' facetum group (Teleostei, Cichlidae) with the description of a new genus », Journal of Zoological Systematics and Evolutionary Research, Wiley-Blackwell, vol. 44, no 2,‎ mai 2006, p. 136-152 (ISSN 0947-5745 et 1439-0469, OCLC 45232394, PMID 32367907, PMCID 7194134, DOI 10.1111/J.1439-0469.2005.00347.X, lire en ligne)</t>
         </is>
